--- a/data/trans_dic/P64D$andando_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 48,8</t>
+          <t>16,07; 47,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 46,93</t>
+          <t>20,23; 46,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,93; 42,59</t>
+          <t>21,86; 42,95</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 26,15</t>
+          <t>15,7; 26,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,69; 36,99</t>
+          <t>14,64; 37,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,76</t>
+          <t>17,2; 28,75</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,73</t>
+          <t>17,32; 24,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,69; 38,01</t>
+          <t>30,12; 38,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,78; 29,15</t>
+          <t>23,73; 29,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 21,53</t>
+          <t>5,23; 21,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 36,93</t>
+          <t>25,51; 37,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 27,17</t>
+          <t>11,25; 27,02</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,6; 31,45</t>
+          <t>21,74; 31,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,89; 51,03</t>
+          <t>41,19; 50,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,31</t>
+          <t>31,04; 38,15</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,39; 71,9</t>
+          <t>31,95; 75,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,71; 76,19</t>
+          <t>44,31; 76,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,82; 68,24</t>
+          <t>43,34; 68,32</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,48; 22,99</t>
+          <t>13,03; 23,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,94; 37,15</t>
+          <t>28,65; 37,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,75; 28,55</t>
+          <t>19,74; 28,52</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se desplaza desde su casa al centro de trabajo/estudios andando</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27341</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26142</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53483</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14562; 42629</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16436; 37752</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37562; 73807</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>70604</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>99018</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>169622</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55020; 91793</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51191; 130388</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>120399; 201269</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>94952</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>119812</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>214764</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>80032; 115113</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>105786; 134763</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>192955; 239231</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>102125</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>146907</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>249031</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38989; 161779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>115534; 167784</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>134831; 323747</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>79386</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>95243</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>174629</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65020; 93512</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>85732; 106131</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>157460; 193502</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8754</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10806</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19560</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5413; 12727</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7866; 13633</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15037; 23702</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>384014</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>497928</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>881942</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>256105; 453789</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>418556; 546259</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>676360; 977176</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>